--- a/vendor/h.xlsx
+++ b/vendor/h.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t xml:space="preserve">الاسم </t>
   </si>
@@ -36,24 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">الدرجه </t>
-  </si>
-  <si>
-    <t>مها</t>
-  </si>
-  <si>
-    <t>التربيه</t>
-  </si>
-  <si>
-    <t>تاريخ</t>
-  </si>
-  <si>
-    <t>المستوى الاول</t>
-  </si>
-  <si>
-    <t>تاريخ ١</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تاريخ السعوديه </t>
   </si>
 </sst>
 </file>
@@ -392,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,52 +403,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>99099</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>99099</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
